--- a/prompt_engineering/experiments/metadata_llama32_3B_gemini.xlsx
+++ b/prompt_engineering/experiments/metadata_llama32_3B_gemini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,25 +471,35 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>Mutation avec impact clinique potentiel</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Mutation avec impact clinique indéterminé</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Mutations avec impact clinique potentiel</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Mutation NRAS</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Mutation TERT</t>
-        </is>
-      </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Absence de mutation BRAF</t>
+          <t>Mutations avec impact clinique indéterminé</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Mutation</t>
         </is>
@@ -523,7 +533,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Optimale (coverage moyen &gt; 1000x)</t>
+          <t>Optimale</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -533,13 +543,19 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[{'Gène': 'BRAF', 'Exon': '15', 'Mutation': 'p.N581I', 'Coverage': 1561, 'Mutations avec impact clinique indéterminé': [{'Gène': 'STK11', 'Exon': '6', 'Mutation': 'p.P281Rfs*6', 'Coverage': 249}]}]</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>[{'Gène': 'BRAF', 'Exon': '15 p.N581I', 'Coverage': 1561, 'Mutation': '17%'}]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[{'Gène': 'STK11', 'Exon': '6 p.P281Rfs*6', 'Coverage': 249, 'Mutation': '24%'}]</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -574,14 +590,24 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[{'Gène': 'KRAS', 'Exon': '3', 'Mutation': 'p.A59E', 'Coverage': 1777, 'Fréquence allélique': 2}, {'Gène': 'TP53', 'Exon': '7', 'Mutation': 'p.P250L', 'Coverage': 1939, 'Fréquence allélique': 5}]</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>[{'Gène': 'TP53', 'Exon': '7', 'Mutation': 'p.P250L', 'Coverage': 1939, 'Fréquence allélique': 5}]</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -624,85 +650,69 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>24EM03839</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>24EC09559</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>THYROID CANCER PANEL</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Erasme</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>PF2</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Optimale</t>
-        </is>
-      </c>
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>{'Gène': 'NRAS', 'Exon': '3', 'Mutation': 'p.Q61K', 'Coverage': 29}</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>{'Gène': 'TERT', 'Type de mutation': 'Promoteur', 'Mutation': 'chr5:1295228C&gt;T', 'Coverage': 33}</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>{'Gène': 'BRAF', 'Type de mutation': 'Absence', 'Mutation': 'Absence', 'Coverage': 0}</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>¼tage : ¼24EM04107
+Némo : ¼24CU062294-1
+Panel : OST
+Origine du prélévement : CurePath
+Type de prélévement : PF1 oncocytaire
+% de cellules : 10
+Qualité du séquençage : Optimale (couverture moyen &gt; 1000x)
+% de cellules tumorales : 0
+% de cellules à analyser : 10%</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>24EM04099</t>
+          <t>24EM04337</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>24CU062291-frottis2</t>
+          <t>2431646</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>THYROID CANCER PANEL</t>
+          <t>OST</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CurePath</t>
+          <t>CMP Pathology</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>PF1</t>
+          <t>masse gastrique</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -712,7 +722,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -720,16 +730,22 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>ATM 35 p.E1751D</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>24EM04337</t>
+          <t>24EM04347</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2431646-1.1</t>
+          <t>23CU032757-1.02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -739,12 +755,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CMP Pathology</t>
+          <t>CurePath</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>masse gastrique</t>
+          <t>carcinome urothélial invasif</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -754,18 +770,16 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>ATM 35 p.E1751D</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -808,6 +822,56 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>24EM03352</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>24MH9794</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Centre Hospitalier de Mouscron</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Adénocarcinome lieberkühnien</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Optimale</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>{'KRAS': 'p.G12V', 'TP53': 'p.Y163*'}</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
